--- a/models/calculation engines/qtrly mining model/outputs/calculations/LPG prices and rebates.xlsx
+++ b/models/calculation engines/qtrly mining model/outputs/calculations/LPG prices and rebates.xlsx
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8636363636363635</v>
+        <v>0.5545454545454545</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8532834415091948</v>
+        <v>0.5597539376300318</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -4433,31 +4433,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.6363636363636362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9272727272727272</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.6090909090909091</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9727272727272727</v>
+        <v>0.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.5909090909090908</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9272727272727272</v>
+        <v>0.5727272727272726</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8954545454545454</v>
+        <v>0.5486363636363636</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9363636363636363</v>
+        <v>0.5363636363636363</v>
       </c>
     </row>
     <row r="3">
@@ -4616,10 +4616,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.95</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9318562347775183</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9766666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.975</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8583333333333334</v>
+        <v>0.008333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8184929443721811</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4749,31 +4749,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9230769230769232</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9568965517241381</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
     <row r="8">
@@ -4788,10 +4788,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.025862068965517</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D8" t="n">
-        <v>1.026009996843734</v>
+        <v>0.4864416328077895</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4799,31 +4799,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.017241379310345</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="G8" t="n">
-        <v>1.060344827586207</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="H8" t="n">
-        <v>1.112068965517242</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="I8" t="n">
-        <v>1.094827586206897</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="J8" t="n">
-        <v>1.025862068965517</v>
+        <v>0.560344827586207</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L8" t="n">
-        <v>1.03448275862069</v>
+        <v>0.456896551724138</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9741379310344828</v>
+        <v>0.3948275862068966</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row r="9">
@@ -4838,10 +4838,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8623853211009174</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8615353143725041</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4849,31 +4849,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8532110091743119</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8899082568807338</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8990825688073394</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="I9" t="n">
-        <v>0.944954128440367</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9724770642201834</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9082568807339448</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8532110091743119</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8807339449541284</v>
+        <v>0.009174311926605503</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8899082568807338</v>
+        <v>0.009174311926605503</v>
       </c>
     </row>
     <row r="10">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -5043,31 +5043,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8170212765957446</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8851063829787233</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="H12" t="n">
-        <v>0.851063829787234</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8765957446808511</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8595744680851064</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8765957446808511</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8340425531914893</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8340425531914893</v>
+        <v>0.008510638297872341</v>
       </c>
     </row>
     <row r="13">
@@ -5082,10 +5082,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.362903225806452</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D13" t="n">
-        <v>1.33881057585878</v>
+        <v>0.6915710259402973</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -5093,31 +5093,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.540322580645161</v>
+        <v>0.8306451612903226</v>
       </c>
       <c r="G13" t="n">
-        <v>1.483870967741935</v>
+        <v>0.782258064516129</v>
       </c>
       <c r="H13" t="n">
-        <v>1.516129032258065</v>
+        <v>0.657258064516129</v>
       </c>
       <c r="I13" t="n">
-        <v>1.524193548387097</v>
+        <v>0.7701612903225806</v>
       </c>
       <c r="J13" t="n">
-        <v>1.42741935483871</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="K13" t="n">
-        <v>1.395161290322581</v>
+        <v>0.717741935483871</v>
       </c>
       <c r="L13" t="n">
-        <v>1.467741935483871</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="M13" t="n">
-        <v>1.451612903225806</v>
+        <v>0.6935483870967741</v>
       </c>
       <c r="N13" t="n">
-        <v>1.42741935483871</v>
+        <v>0.7016129032258065</v>
       </c>
     </row>
     <row r="14">
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -5143,31 +5143,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9083333333333334</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8633333333333334</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.008333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8951612903225807</v>
+        <v>0.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8719103074151225</v>
+        <v>0.4353914995797968</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -5337,31 +5337,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9112903225806451</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.4798387096774193</v>
       </c>
       <c r="I17" t="n">
-        <v>0.903225806451613</v>
+        <v>0.5241935483870968</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8790322580645162</v>
+        <v>0.5806451612903225</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8467741935483871</v>
+        <v>0.4758064516129032</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8669354838709677</v>
+        <v>0.5403225806451614</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8596774193548388</v>
+        <v>0.435483870967742</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.435483870967742</v>
       </c>
     </row>
     <row r="18">
@@ -5376,10 +5376,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5727272727272726</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5723989027043519</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -5387,31 +5387,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5727272727272726</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5909090909090908</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6272727272727272</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6727272727272726</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6363636363636362</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6727272727272726</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6409090909090909</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6545454545454544</v>
+        <v>0.00909090909090909</v>
       </c>
     </row>
     <row r="19">
@@ -5642,10 +5642,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9012875536480687</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.933847075580627</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -5653,31 +5653,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.004291845493562</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="G22" t="n">
-        <v>1.03862660944206</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="H22" t="n">
-        <v>1.021459227467811</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="I22" t="n">
-        <v>1.150214592274678</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="J22" t="n">
-        <v>1.081545064377682</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="K22" t="n">
-        <v>1.030042918454936</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="L22" t="n">
-        <v>1.030042918454936</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="M22" t="n">
-        <v>1.012875536480687</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="N22" t="n">
-        <v>0.96137339055794</v>
+        <v>0.008583690987124463</v>
       </c>
     </row>
     <row r="23">
@@ -5836,10 +5836,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4905660377358491</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4422513618183005</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -5847,31 +5847,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5566037735849056</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5235849056603774</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5094339622641509</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4905660377358491</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4575471698113207</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4716981132075471</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4716981132075471</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4811320754716981</v>
+        <v>0.009433962264150943</v>
       </c>
     </row>
     <row r="26">
@@ -5901,31 +5901,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.294117647058824</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="G26" t="n">
-        <v>1.279831932773109</v>
+        <v>0.5798319327731092</v>
       </c>
       <c r="H26" t="n">
-        <v>1.294117647058824</v>
+        <v>0.008403361344537816</v>
       </c>
       <c r="I26" t="n">
-        <v>1.159663865546218</v>
+        <v>0.008403361344537816</v>
       </c>
       <c r="J26" t="n">
-        <v>1.260504201680672</v>
+        <v>0.008403361344537816</v>
       </c>
       <c r="K26" t="n">
-        <v>1.168067226890756</v>
+        <v>0.008403361344537816</v>
       </c>
       <c r="L26" t="n">
-        <v>1.210084033613445</v>
+        <v>0.008403361344537816</v>
       </c>
       <c r="M26" t="n">
-        <v>1.252100840336134</v>
+        <v>0.008403361344537816</v>
       </c>
       <c r="N26" t="n">
-        <v>1.218487394957983</v>
+        <v>0.008403361344537816</v>
       </c>
     </row>
     <row r="27">
@@ -5940,42 +5940,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6068376068376068</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5975979279650024</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0.5897435897435898</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6239316239316239</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6068376068376068</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5982905982905983</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6068376068376068</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5811965811965812</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5811965811965812</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6196581196581197</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6324786324786326</v>
+        <v>0.008547008547008548</v>
       </c>
     </row>
     <row r="28">
@@ -6221,31 +6223,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.156363636363636</v>
+        <v>0.7636363636363636</v>
       </c>
       <c r="G31" t="n">
-        <v>1.112727272727273</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="H31" t="n">
-        <v>1.2</v>
+        <v>0.7309090909090908</v>
       </c>
       <c r="I31" t="n">
-        <v>1.167272727272727</v>
+        <v>0.72</v>
       </c>
       <c r="J31" t="n">
-        <v>1.156363636363636</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="K31" t="n">
-        <v>1.156363636363636</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="L31" t="n">
-        <v>1.112727272727273</v>
+        <v>0.6872727272727273</v>
       </c>
       <c r="M31" t="n">
-        <v>1.074545454545454</v>
+        <v>0.6583636363636364</v>
       </c>
       <c r="N31" t="n">
-        <v>1.123636363636364</v>
+        <v>0.6436363636363636</v>
       </c>
     </row>
     <row r="32">
@@ -6779,31 +6781,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.7818181818181817</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8409090909090908</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8409090909090908</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8090909090909091</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8318181818181818</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8454545454545455</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8090909090909091</v>
+        <v>0.00909090909090909</v>
       </c>
     </row>
     <row r="40">
@@ -6890,44 +6892,44 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.008547008547008548</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0.9230769230769232</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9514013885317563</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9385446130110567</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
     <row r="42">
@@ -6942,44 +6944,44 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.008547008547008548</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0.9230769230769232</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9514013885317563</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9385446130110567</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N42" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
     <row r="43">
@@ -6994,44 +6996,44 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.008547008547008548</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0.9230769230769232</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9514013885317563</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9385446130110567</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
     <row r="44">
@@ -7046,44 +7048,44 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.008547008547008548</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0.9230769230769232</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9514013885317563</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9385446130110567</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N44" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
     <row r="45">
@@ -7098,44 +7100,44 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.008547008547008548</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>0.9230769230769232</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9514013885317563</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9385446130110567</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
     <row r="46">
@@ -7150,44 +7152,44 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.008547008547008548</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0.9230769230769232</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9514013885317563</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9385446130110567</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="M46" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N46" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
     <row r="47">
@@ -7202,44 +7204,44 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.008547008547008548</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0.9230769230769232</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9514013885317563</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9385446130110567</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
     <row r="48">
@@ -7254,44 +7256,44 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
+        <v>0.008547008547008548</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.008547008547008548</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0.9230769230769232</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9726495726495726</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9514013885317563</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9396551724137933</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9051724137931035</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8922413793103449</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9385446130110567</v>
+        <v>0.008571183680466271</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8706896551724138</v>
+        <v>0.008620689655172415</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8793103448275863</v>
+        <v>0.008620689655172415</v>
       </c>
     </row>
   </sheetData>
